--- a/app/excel.xlsx
+++ b/app/excel.xlsx
@@ -20,33 +20,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t xml:space="preserve">Item name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prompt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keywords</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Result</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+  <si>
+    <t xml:space="preserve">item_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prompt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keywords</t>
+  </si>
+  <si>
+    <t xml:space="preserve">result</t>
   </si>
   <si>
     <t xml:space="preserve">Беспроводные наушники</t>
   </si>
   <si>
-    <t xml:space="preserve">Напиши мне описание беспроводных наушников от 4000 до 5000 символов. Важно не изменять ключевые слова и использовать их "как есть"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">наушники беспроводные, черные
-Наушники. Безпроводные,
-Наушники беспроводные большие черные,
-наушники черные,
-Беспроводные наушники черные,
-нушники беспроводные для телефона черные блютуз,
+    <t xml:space="preserve">Напиши мне описание беспроводных наушников от 4000 до 5000 символов. Важно не изменять ключевые слова и использовать их как есть</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наушники беспроводные черные, Наушники Безпроводные,
+Наушники беспроводные большие черные, наушники черные, Беспроводные наушники черные, нушники беспроводные для телефона черные блютуз,
 гарнитур</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Беспроводные наушники 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Беспроводные наушники 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Беспроводные наушники 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Беспроводные наушники 5</t>
   </si>
 </sst>
 </file>
@@ -61,6 +69,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -120,12 +129,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -146,44 +159,88 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="35.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="38.84"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="180.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="79.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="79.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="79.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="79.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/app/excel.xlsx
+++ b/app/excel.xlsx
@@ -64,7 +64,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -85,6 +85,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -129,13 +136,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -162,7 +173,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -187,58 +198,58 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="79.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="79.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="79.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="79.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
     </row>

--- a/app/excel.xlsx
+++ b/app/excel.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t xml:space="preserve">item_name</t>
   </si>
@@ -37,7 +37,9 @@
     <t xml:space="preserve">Беспроводные наушники</t>
   </si>
   <si>
-    <t xml:space="preserve">Напиши мне описание беспроводных наушников от 4000 до 5000 символов. Важно не изменять ключевые слова и использовать их как есть</t>
+    <t xml:space="preserve">Написать описание товара с использованием указанных мной ключевых слов от 4000 до 5000 символов.
+Важно не изменять ключевые слова в тексте и использовать их как есть.
+Выдели ключевые слова жирным в ответе</t>
   </si>
   <si>
     <t xml:space="preserve">Наушники беспроводные черные, Наушники Безпроводные,
@@ -45,16 +47,24 @@
 гарнитур</t>
   </si>
   <si>
-    <t xml:space="preserve">Беспроводные наушники 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Беспроводные наушники 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Беспроводные наушники 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Беспроводные наушники 5</t>
+    <t xml:space="preserve">q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ирригатор h20floss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ирригатор, ирригатор для зубов, бытовая техника, гигиена полости рта, ирригатор портативный, ирригатор для зубов портативный, зубные щетки и ирригаторы, иригатор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вибратор вакуумно-волновой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Написать описание товара с использованием указанных мной ключевых слов, длина текста должна быть СТРОГО от 4000 до 5000 символов, не меньше не больше.
+Важно не изменять ключевые слова в тексте и использовать их как есть.
+Выдели ключевые слова жирным в ответе</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вибратор, секс игрушки,  игрушки для взрослых, хуй, вибраторы, вибраторы и стимуляторы, секс игрушка, игрушки для взрослый, вибратор женский, игрушки для секса, игрушки 18+</t>
   </si>
 </sst>
 </file>
@@ -136,7 +146,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -151,6 +161,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -173,13 +187,13 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="35.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="36.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="38.84"/>
   </cols>
   <sheetData>
@@ -197,61 +211,54 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" customFormat="false" ht="79.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="79.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" customFormat="false" ht="101.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="79.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="79.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>6</v>
-      </c>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/app/excel.xlsx
+++ b/app/excel.xlsx
@@ -476,12 +476,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Представляем вам **беспроводные наушники** в черном цвете, которые превосходят все ожидания! Наушники обладают передовыми технологиями и оригинальным дизайном, призванными удовлетворить даже самых требовательных пользователей. 
-**Наушники беспроводные** - в наше время это настоящая находка для любителей свободы и комфорта. Теперь вы можете наслаждаться любимой музыкой или звонками без проводов, благодаря беспроводной связи, которая обеспечивается за счет **блютуз**-технологии.
-Наушники выполнены в сдержанном черном цвете, что придает им элегантный и стильный вид. При этом их размеры оказываются достаточно **большими**, что позволяет корректно разместить их на ушах, обеспечивая при этом максимальный комфорт. Черный цвет подчеркивает элегантность наушников и позволяет им привлекать внимание.
-**Беспроводные наушники** черного цвета идеально подходят для использования с **телефоном** и предлагают широкий набор функций для вашего комфорта. Вы можете наслаждаться безупречным звучанием во время просмотра видео или слушания музыки, а также комфортно общаться в течение звонков. **Гарнитур**, интегрированный в наушники, обеспечивает качественный звук при разговоре и удобное управление вызовами без необходимости прикосновения к телефону.
-Наушники легко подключаются к вашему устройству с помощью **блютуз-соединения**, что позволяет вам осуществлять голосовые команды и настраивать звук по вашему вкусу. Вы можете регулировать громкость, переключать треки и даже принимать звонки с помощью удобных кнопок на наушниках. 
-**Наушники беспроводные большие черные** - это не просто гаджет, это стильный аксессуар и предмет гордости для своего владельца. Они идеально вписываются в современный образ и дают возможность наслаждаться музыкой и общением, не заботясь о проводах и ограничениях. Доверьте свое звуковое сопровождение лидеру на рынке **беспроводных наушников** - выберите **черные беспроводные наушники** уже сегодня!</t>
+          <t>Представляем вам **беспроводные наушники**, которые станут идеальным выбором для всех меломанов и активных пользователей мобильных устройств. Эти наушники отличаются качественным звуком, стильным дизайном и, конечно же, свободой от лишних проводов.
+**Наушники беспроводные черные** являются идеальным вариантом для тех, кто любит выделяться и следить за последними тенденциями в мире технологий. Обладая элегантными черными наушниками, вы сможете добавить нотку стиля и индивидуальности в свой образ.
+Эти наушники обеспечивают **безпроводной** комфорт, основанный на передовых технологиях соединения. Ни одна мелодия не пропадет и не задержится, благодаря бесперебойной передаче звука.
+**Наушники беспроводные большие черные** идеально садятся на голову, обеспечивая максимальный комфорт при использовании. Мягкие амбушюры и гибкая оголовье гарантируют длительное удовольствие от прослушивания без каких-либо дискомфортов или усталости.
+**Наушники черные** великолепно подходят для использования в любом месте и в любое время. Они станут вашим незаменимым спутником во время прогулок, поездок или спортивных тренировок. Мощный аккумулятор обеспечивает длительное время работы наушников, а функция быстрой зарядки поможет не пропустить ни одной мелодии.
+**Беспроводные наушники черные**, совместимые с большинством телефонов и планшетов, позволят вам наслаждаться любимой музыкой, смотреть фильмы и играть в игры без лишних проводов. Просто подключите их по Bluetooth и наслаждайтесь свободой передвижения, сохраняя качественный звук.
+**Нушники беспроводные для телефона черные блютуз** – это универсальный гарнитур, который подойдет для всех смартфонов и позволит вам комфортно общаться в режиме hands-free. Громкие и четкие звонки, общение в онлайн-режиме – все это станет легким и приятным с нашими наушниками.
+Таким образом, **беспроводные наушники** – это идеальное сочетание модного дизайна, удобства использования и высокого качества звука. Они станут незаменимым аксессуаром для всех, кто ценит свободу передвижения и не хочет ограничиваться проводами. Погрузитесь в удивительный мир звука без ограничений с нашими наушниками.</t>
         </is>
       </c>
     </row>
@@ -506,13 +508,13 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>h20floss – это портативный ирригатор, который с удивительной эффективностью очищает полость рта и обеспечивает высокую гигиену зубов. Это устройство является незаменимым помощником в повседневной заботе о здоровье полости рта.
-Одной из важнейших функций ирригатора h20floss является удаление зубного налета и остатков пищи из труднодоступных мест, куда обычная зубная щетка не может достичь. Благодаря мощному потоку воды под давлением, ирригатор легко и эффективно справляется с различными отложениями и загрязнениями, удаляя до 99,9% бактерий в труднодоступных местах.
-Ирригатор h20floss является идеальным решением для людей, которые ценят свое время и комфорт. Благодаря портативному дизайну, данный ирригатор легко помещается в любую сумку или даже карман, позволяя вам осуществлять гигиену полости рта в любом удобном месте.
-Этот портативный ирригатор обладает несколькими режимами работы, что позволяет вам настроить интенсивность и поток воды в зависимости от ваших предпочтений и потребностей. Регулировка уровня давления позволяет удовлетворить даже самых требовательных пользователей, обеспечивая максимально комфортный и эффективный процесс очищения полости рта.
-Кроме того, ирригатор h20floss отличается простотой и удобством использования. Интуитивно понятные кнопки на корпусе прибора позволяют вам легко управлять режимами работы без каких-либо сложностей. Комплектация ирригатора также включает в себя сменные насадки, которые легко меняются и позволяют вам выбрать оптимальный вариант для себя и вашей семьи.
-Необходимо отметить, что использование ирригатора h20floss сопровождается ощутимыми преимуществами. Во-первых, он помогает предотвратить заболевания десен, такие как пародонтит или гингивит, которые могут привести к серьезным проблемам со здоровьем полости рта. Во-вторых, этот ирригатор помогает поддерживать свежий дыхание и предотвращает появление неприятного запаха изо рта. В-третьих, он способствует укреплению зубов и повышению их устойчивости к кариесу и другим заболеваниям.
-Итак, если вы ищете надежный и эффективный способ поддерживать гигиену полости рта, портативный ирригатор h20floss – ваш идеальный выбор. Благодаря своей компактности, удобству использования и высокой эффективности, он полностью удовлетворит ваши потребности и поможет вам поддерживать здоровье полости рта на высоком уровне.</t>
+          <t>h20floss - это портативный ирригатор, разработанный специально для эффективного очищения полости рта и улучшения гигиены зубов. Совмещая в себе превосходное качество и компактность, этот ирригатор является идеальным выбором для тех, кто стремится поддерживать свои зубы и десны в отличном состоянии в любых условиях.
+Основным преимуществом ирригатора h20floss является его портативность. Благодаря своим небольшим размерам и легкому весу, вы можете брать его с собой в путешествия, на работу или просто использовать дома. Теперь у вас всегда будет возможность осуществлять качественную гигиену полости рта, независимо от места и времени.
+Комплектация ирригатора включает в себя зарядное устройство и стильный чехол для удобства транспортировки. Это позволяет вам хранить ирригатор в безопасности и в то же время иметь быстрый и удобный доступ к нему, когда это необходимо. Независимо от того, насколько активный образ жизни вы ведете, ирригатор h20floss всегда будет готов к использованию.
+Эффективность ирригатора достигается благодаря его мощному воздушно-водяному потоку, который снабжен регулируемым давлением. Вы сможете выбрать оптимальную интенсивность струи для вашей полости рта и получить максимальную пользу от процедуры. Более того, ирригатор h20floss обеспечивает глубокую и тщательную очистку межзубных промежутков и зубных имплантов, а также массаж десен для укрепления их здоровья.
+Использование ирригатора h20floss очень просто. Вы просто заполняете его водой и выбираете нужную интенсивность струи. Затем вы направляете струю вокруг зубов и десен, осуществляя движения изо рта. Благодаря наличию специальной насадки с поворотом на 360 градусов, вы сможете достичь всех уголков полости рта, где обычная зубная щетка не может достигнуть.
+Помимо основной функции очистки, ирригатор h20floss также может быть использован для ароматерапии и прополоски рта. Просто добавьте немного ароматического масла или жидкости для полоскания в резервуар и наслаждайтесь свежим дыханием и чистотой полости рта на протяжении всего дня.
+Итак, если вы ищите портативный ирригатор, который обеспечит вам высокое качество и эффективность, ирригатор h20floss - это ваш выбор. Будьте уверены, что каждая процедура очистки полости рта с его помощью будет приятной и полезной для вашей гигиены полости рта. Вы достойны самого лучшего ирригатора для зубов, и h20floss готов предоставить вам это!</t>
         </is>
       </c>
     </row>
@@ -537,16 +539,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Представляем вам уникальный и инновационный вибратор вакуумно-волновой, который обеспечивает невероятные ощущения и полное удовлетворение. Эта секс игрушка является настоящим открытием в мире интимных удовольствий, идеально подходящая для взрослых, кто стремится разнообразить свою сексуальную жизнь и получить максимальное наслаждение.
-**Вибратор** является одной из самых популярных **игрушек для взрослых**, обладающих разнообразными функциями и возможностями. И у нас есть особенное предложение для вас – **вакуумно-волновой вибратор**, который отличается от остальных на рынке своей инновационной технологией.
-Эта секс игрушка создана для самых требовательных пользователей, которые ищут нечто особенное и новаторское. **Вибратор вакуумно-волновой** объединяет в себе две потрясающие функции – вакуумный массаж и волновые вибрации, чтобы доставить вам незабываемые ощущения.
-**Хуй** вибратора вакуумно-волнового имеет особую эргономичную форму, которая позволяет с легкостью достичь высокого стимуляции. Его изгибенный дизайн обеспечивает приятное ощущение заполненности и активирует все чувствительные точки.
-Наш вибратор является одной из самых новых разработок в области **вибраторов и стимуляторов**. Он оснащен инновационной технологией вакуумного массажа, что делает его уникальным на рынке интимных товаров. Вакуумный массаж создает пульсирующее давление, которое возбуждает и стимулирует эрогенные зоны, доставляя непревзойденное блаженство.
-Кроме того, **вибратор вакуумно-волновой** имеет различные режимы вибрации, чтобы вы могли выбрать то, что вам по душе. Интенсивность и ритмы вибрации настраиваются по вашему желанию, обеспечивая вам индивидуальное и уникальное удовольствие.
-Эта **секс игрушка** разработана с учетом особых потребностей и желаний каждого пользователя. Она изготовлена из качественного и гипоаллергенного материала, чтобы предоставить вам безопасность и комфорт во время использования. Вибратор легко моется и удобен в уходе.
-**Игрушка для взрослых** предназначена для женщин, которые хотят насладиться полным и удовлетворительным сексуальным опытом. Она идеально подходит для самоудовлетворения или для использования в паре, чтобы разнообразить привычную интимную жизнь.
-**Вибратор вакуумно-волновой** – это не просто игрушка для секса, это источник бесконечного удовольствия и сексуального блаженства. Он позволит вам открыть новые грани наслаждения и достигнуть вершины удовольствия.
-Закажите сейчас эту **игрушку для взрослых 18+** и ощутите непревзойденные ощущения, которые она может предоставить. Наслаждайтесь инновационными возможностями и экспериментируйте с вашим удовольствием. Вы заслуживаете только лучшее!</t>
+          <t>🔥 Вибратор вакуумно-волновой: уникальная секс игрушка для взрослых! 🔥
+Вы искали современный и инновационный вибратор, который обеспечивает непревзойденное наслаждение? Мы рады представить вам революционный вибратор вакуумно-волновой. С помощью этой секс игрушки ваша интимная жизнь станет невероятно яркой и насыщенной!
+💫 Вибратор вакуумно-волновой - это стильный и эффективный аксессуар, созданный специально для настоящих ценителей удовольствия. Его основная задача - удовлетворить все ваши сексуальные фантазии и достичь максимальной стимуляции.
+🌟 При первом взгляде на этот вибратор вы обратите внимание на его современный и эргономичный дизайн. Он идеально сбалансирован и обеспечивает максимальный комфорт во время использования. Благодаря этому вибратору ваше сексуальное удовольствие достигнет новых граней!
+❤️ Вибратор вакуумно-волновой предлагает разнообразные режимы вибрации, которые вы сможете выбрать с помощью наглядного и удобного интерфейса. Вам нужно лишь нажать на одну из кнопок, чтобы ощутить мощные и приятные вибрации. Так вы сможете настроить игрушку на оптимальную для вас интенсивность вибрации.
+💦 Но главной особенностью этого вибратора является его функция вакуума и волновой стимуляции. Он способен создать эффект трепета и пульсации, ощущение которых вы еще никогда не испытывали. Этот инновационный подход к стимуляции интимных зон делает этот вибратор по-настоящему уникальным и неповторимым.
+🌈 Вибратор вакуумно-волновой идеально подходит как для индивидуального использования, так и для разнообразия ваших сексуальных игр с партнером. Он легко вставляется и обеспечивает стимуляцию внутренних точек G, доставляя незабываемые ощущения каждый раз.
+💯 Ключевые особенности вибратора вакуумно-волнового:
+- Эргономичный и современный дизайн;
+- Разнообразные режимы вибрации;
+- Функция вакуума и волновой стимуляции;
+- Использование режимов интенсивности;
+- Легкая вставка и комфортное пользование;
+- Идеален для индивидуальной и парной игры.
+🔒 Когда дело касается вашей сексуальной жизни, мы понимаем, насколько важна ваша конфиденциальность. Поэтому мы гарантируем полную анонимность при покупке и доставке данной секс игрушки. 
+🔥 Вибратор вакуумно-волновой - это игрушка для взрослых, которая позволит вам открывать новые грани наслаждения. Позвольте себе погрузиться в мир чувственных стимуляций и получить удовольствие, о котором вы всегда мечтали! Не откладывайте свое наслаждение на потом - сделайте этот вибратор частью вашей жизни уже сегодня! 💫🌈💯</t>
         </is>
       </c>
     </row>
